--- a/實驗.xlsx
+++ b/實驗.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davidchu\Desktop\NTU\FIH-Turing-UI\_TEST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0251D4B-9B56-4710-8AE2-AF86665A5DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4FD5C1-2477-44DB-9381-8B3314D63130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
   <si>
     <t xml:space="preserve"> F = 0.8, Cr = 0.5, no decay</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -199,6 +198,182 @@
         <a:xfrm>
           <a:off x="3865756" y="2478358"/>
           <a:ext cx="5280846" cy="2224590"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>15765</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>75338</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>13366</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B00652-7571-49C8-B182-CDC134EB7D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7394027"/>
+          <a:ext cx="4489683" cy="2078649"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36786</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>91615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>14335</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>62205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="圖片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5A4D7F5-220B-4C38-9D52-A15FED80EF2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4451131" y="7469877"/>
+          <a:ext cx="4896390" cy="727335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>31531</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>85902</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>107525</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>48846</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="圖片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455D7C40-10FC-49BA-BB92-DB14F62786AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4445876" y="8220909"/>
+          <a:ext cx="3901759" cy="1287247"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>42040</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>66222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>290149</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>12249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="圖片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF7B808-DFC3-4D08-BDD3-6845FE77529A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4456385" y="9525532"/>
+          <a:ext cx="2434261" cy="513586"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -473,10 +648,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -900,12 +1075,12 @@
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>4.7800000000000004E-3</v>
       </c>
@@ -922,7 +1097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.64E-3</v>
       </c>
@@ -941,7 +1116,7 @@
         <v>2.4548476886035973E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>6.9309999999999997E-2</v>
       </c>
@@ -958,7 +1133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>5.6460000000000003E-2</v>
       </c>
@@ -975,6 +1150,91 @@
       <c r="F37">
         <f>MAX(A34:C37)</f>
         <v>6.9309999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="3">
+        <v>44753</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1.617E-2</v>
+      </c>
+      <c r="B52">
+        <v>6.8199999999999997E-3</v>
+      </c>
+      <c r="C52">
+        <v>8.1099999999999992E-3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1.336E-2</v>
+      </c>
+      <c r="B53">
+        <v>1.2529999999999999E-2</v>
+      </c>
+      <c r="C53">
+        <v>1.745E-2</v>
+      </c>
+      <c r="E53" s="5">
+        <f>GEOMEAN(A52:C55)</f>
+        <v>9.4546943363799495E-3</v>
+      </c>
+      <c r="F53">
+        <f>STDEV(A52:C55)</f>
+        <v>4.3579153864148771E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>8.1600000000000006E-3</v>
+      </c>
+      <c r="B54">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="C54">
+        <v>1.44E-2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>9.0299999999999998E-3</v>
+      </c>
+      <c r="B55">
+        <v>9.2399999999999999E-3</v>
+      </c>
+      <c r="C55">
+        <v>4.9800000000000001E-3</v>
+      </c>
+      <c r="E55">
+        <f xml:space="preserve"> MIN(A52:C55)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="F55">
+        <f>MAX(A52:C55)</f>
+        <v>1.745E-2</v>
       </c>
     </row>
   </sheetData>

--- a/實驗.xlsx
+++ b/實驗.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88691\Documents\儒妹\ACKLEY-Turing-UI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4FD5C1-2477-44DB-9381-8B3314D63130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD7FA05C-AD7C-4237-9A7F-0DD2AC00B7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
   <si>
     <t xml:space="preserve"> F = 0.8, Cr = 0.5, no decay</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,10 @@
   </si>
   <si>
     <t>F = 0.3, Cr = 0.5, no decay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>local minima</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -296,23 +300,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>31531</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>85902</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>166404</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>107525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>48846</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36786</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>53406</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="圖片 4">
+        <xdr:cNvPr id="7" name="圖片 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{455D7C40-10FC-49BA-BB92-DB14F62786AC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5190AB58-390A-4F85-B755-FBAADD33F592}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -328,8 +332,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4445876" y="8220909"/>
-          <a:ext cx="3901759" cy="1287247"/>
+          <a:off x="0" y="10571645"/>
+          <a:ext cx="4451131" cy="2157237"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -341,22 +345,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>42040</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>66222</xdr:rowOff>
+      <xdr:colOff>36786</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>118112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>290149</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>12249</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>495863</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>117396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="圖片 5">
+        <xdr:cNvPr id="8" name="圖片 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAF7B808-DFC3-4D08-BDD3-6845FE77529A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4101035-5584-46B1-A409-2D3F7DEEEB1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -372,8 +376,272 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4456385" y="9525532"/>
-          <a:ext cx="2434261" cy="513586"/>
+          <a:off x="4451131" y="10712540"/>
+          <a:ext cx="4831380" cy="756028"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>36785</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>74980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285615</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>92318</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="圖片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FF86145-1559-4012-A4D5-CD9597DD290E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4451130" y="8209987"/>
+          <a:ext cx="4621133" cy="1909200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5255</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>164701</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>277764</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>143985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="圖片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2A0AD6F-7C9D-4926-8680-28194F190C64}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4419600" y="13786108"/>
+          <a:ext cx="5191350" cy="736029"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>135008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="圖片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AFD4FE9-2344-4AB3-8708-460C21870FF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13773806"/>
+          <a:ext cx="4414345" cy="2063657"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>26277</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>478221</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>174189</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="圖片 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4472B38-AEA6-46D8-B4A5-E28B361EB3E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="16863849"/>
+          <a:ext cx="4346028" cy="2039774"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>129471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>242759</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>35930</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="圖片 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E617391-35C0-4017-A6A9-68DD050FAC09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325007" y="16967043"/>
+          <a:ext cx="5250938" cy="663204"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>41868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3511</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>167841</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="圖片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F673C97-584C-4EE4-BA12-BAA608B6FC8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4325007" y="17636185"/>
+          <a:ext cx="4465152" cy="3342139"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -648,10 +916,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C103" sqref="C103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -1237,6 +1505,225 @@
         <v>1.745E-2</v>
       </c>
     </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>1.179E-2</v>
+      </c>
+      <c r="B69">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="C69">
+        <v>2.0969999999999999E-2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2.4080000000000001E-2</v>
+      </c>
+      <c r="B70">
+        <v>8.3099999999999997E-3</v>
+      </c>
+      <c r="C70">
+        <v>1.239E-2</v>
+      </c>
+      <c r="E70" s="5">
+        <f>GEOMEAN(A69:C72)</f>
+        <v>1.5728685289565565E-2</v>
+      </c>
+      <c r="F70">
+        <f>STDEV(A69:C72)</f>
+        <v>1.8408284428649523E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>1.274E-2</v>
+      </c>
+      <c r="B71">
+        <v>2.5080000000000002E-2</v>
+      </c>
+      <c r="C71">
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="E71" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="B72">
+        <v>3.5150000000000001E-2</v>
+      </c>
+      <c r="C72">
+        <v>7.1940000000000004E-2</v>
+      </c>
+      <c r="E72">
+        <f xml:space="preserve"> MIN(A69:C72)</f>
+        <v>5.6299999999999996E-3</v>
+      </c>
+      <c r="F72">
+        <f>MAX(A69:C72)</f>
+        <v>7.1940000000000004E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="B85">
+        <v>9.6200000000000001E-3</v>
+      </c>
+      <c r="C85">
+        <v>1.469E-2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="B86">
+        <v>1.2540000000000001E-2</v>
+      </c>
+      <c r="C86">
+        <v>1.1939999999999999E-2</v>
+      </c>
+      <c r="E86" s="5">
+        <f>GEOMEAN(A85:C88)</f>
+        <v>9.1125382312338618E-3</v>
+      </c>
+      <c r="F86">
+        <f>STDEV(A85:C88)</f>
+        <v>5.977589143601034E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>7.6400000000000001E-3</v>
+      </c>
+      <c r="B87">
+        <v>8.5199999999999998E-3</v>
+      </c>
+      <c r="C87">
+        <v>4.7699999999999999E-3</v>
+      </c>
+      <c r="E87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>1.277E-2</v>
+      </c>
+      <c r="B88">
+        <v>2.5930000000000002E-2</v>
+      </c>
+      <c r="C88">
+        <v>5.6600000000000001E-3</v>
+      </c>
+      <c r="E88">
+        <f xml:space="preserve"> MIN(A85:C88)</f>
+        <v>4.0099999999999997E-3</v>
+      </c>
+      <c r="F88">
+        <f>MAX(A85:C88)</f>
+        <v>2.5930000000000002E-2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>5.1200000000000004E-3</v>
+      </c>
+      <c r="B101">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="C101">
+        <v>7.4400000000000004E-3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>8.4200000000000004E-3</v>
+      </c>
+      <c r="B102">
+        <v>2.2009999999999998E-2</v>
+      </c>
+      <c r="C102">
+        <v>6.6400000000000001E-3</v>
+      </c>
+      <c r="E102" s="5">
+        <f>GEOMEAN(A101:C104)</f>
+        <v>7.4342578274817694E-3</v>
+      </c>
+      <c r="F102">
+        <f>STDEV(A101:C104)</f>
+        <v>4.8410087697804164E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="B103">
+        <v>5.5500000000000002E-3</v>
+      </c>
+      <c r="C103">
+        <v>1.205E-2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>8</v>
+      </c>
+      <c r="F103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>6.0099999999999997E-3</v>
+      </c>
+      <c r="B104">
+        <v>9.6500000000000006E-3</v>
+      </c>
+      <c r="C104">
+        <v>6.9800000000000001E-3</v>
+      </c>
+      <c r="E104">
+        <f xml:space="preserve"> MIN(A101:C104)</f>
+        <v>3.9399999999999999E-3</v>
+      </c>
+      <c r="F104">
+        <f>MAX(A101:C104)</f>
+        <v>2.2009999999999998E-2</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
